--- a/src/emails_passwords.xlsx
+++ b/src/emails_passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,66 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rlopez@outlook.com</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PTAC$Fs00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>alang@outlook.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PTAC*Sm00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>autumnbennett48@outlook.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PTAC*Ql02</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tgonzalez@outlook.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PTAC%Hl00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rkelley@outlook.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PTAC%As00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
